--- a/Tests/Tests.xlsx
+++ b/Tests/Tests.xlsx
@@ -1,126 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD822148-55B4-4CFA-9888-22D8795C0E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E97DC-6317-4B4E-B7C8-A93D166320B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>https://job3s.com.vn/tim-viec-lam-tai-hoa-binh-l8</t>
-  </si>
-  <si>
-    <t>việc làm hòa bình</t>
-  </si>
-  <si>
-    <t>https://job3s.com.vn/tim-viec-lam-tai-bac-giang-l3</t>
-  </si>
-  <si>
-    <t>việc làm bắc giang</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Việc làm Hà Nội</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://job3s.com.vn/tim-viec-lam-tai-ha-noi-l1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thành công</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Việc làm Hồ Chí Minh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://job3s.com.vn/tim-viec-lam-tai-ho-chi-minh-l45</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="5">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="16"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="6"/>
+      <x:name val="Calibri"/>
+      <x:family val="3"/>
+      <x:charset val="128"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <x:alignment vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,82 +409,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C64"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="B10" sqref="B10"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="41.855469" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="69.425781" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.425781" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" s="1" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="2"/>
+      <x:c r="B4" s="3"/>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2"/>
+      <x:c r="B5" s="3"/>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="2"/>
+      <x:c r="B6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="2"/>
+      <x:c r="B7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="2"/>
+      <x:c r="B8" s="3"/>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="2"/>
+      <x:c r="B9" s="3"/>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="2"/>
+      <x:c r="B10" s="3"/>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="2"/>
+      <x:c r="B11" s="3"/>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="2"/>
+      <x:c r="B12" s="3"/>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="2"/>
+      <x:c r="B13" s="3"/>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="2"/>
+      <x:c r="B14" s="3"/>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="2"/>
+      <x:c r="B15" s="3"/>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="2"/>
+      <x:c r="B16" s="3"/>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="2"/>
+      <x:c r="B17" s="3"/>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="2"/>
+      <x:c r="B18" s="3"/>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="3"/>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="2"/>
+      <x:c r="B20" s="3"/>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="2"/>
+      <x:c r="B21" s="3"/>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="2"/>
+      <x:c r="B22" s="3"/>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="2"/>
+      <x:c r="B23" s="3"/>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="2"/>
+      <x:c r="B24" s="3"/>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="2"/>
+      <x:c r="B25" s="3"/>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="2"/>
+      <x:c r="B26" s="3"/>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="2"/>
+      <x:c r="B27" s="3"/>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="2"/>
+      <x:c r="B28" s="3"/>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="2"/>
+      <x:c r="B29" s="3"/>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="2"/>
+      <x:c r="B30" s="3"/>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="2"/>
+      <x:c r="B31" s="3"/>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="2"/>
+      <x:c r="B32" s="3"/>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="2"/>
+      <x:c r="B33" s="3"/>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="2"/>
+      <x:c r="B34" s="3"/>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="2"/>
+      <x:c r="B35" s="3"/>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="2"/>
+      <x:c r="B36" s="3"/>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="2"/>
+      <x:c r="B37" s="3"/>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="2"/>
+      <x:c r="B38" s="3"/>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="2"/>
+      <x:c r="B39" s="3"/>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="2"/>
+      <x:c r="B40" s="3"/>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="2"/>
+      <x:c r="B41" s="3"/>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="2"/>
+      <x:c r="B42" s="3"/>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="2"/>
+      <x:c r="B43" s="3"/>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="2"/>
+      <x:c r="B44" s="3"/>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="2"/>
+      <x:c r="B45" s="3"/>
+    </x:row>
+    <x:row r="46" spans="1:3">
+      <x:c r="A46" s="2"/>
+      <x:c r="B46" s="3"/>
+    </x:row>
+    <x:row r="47" spans="1:3">
+      <x:c r="A47" s="2"/>
+      <x:c r="B47" s="3"/>
+    </x:row>
+    <x:row r="48" spans="1:3">
+      <x:c r="A48" s="2"/>
+      <x:c r="B48" s="3"/>
+    </x:row>
+    <x:row r="49" spans="1:3">
+      <x:c r="A49" s="2"/>
+      <x:c r="B49" s="3"/>
+    </x:row>
+    <x:row r="50" spans="1:3">
+      <x:c r="A50" s="2"/>
+      <x:c r="B50" s="3"/>
+    </x:row>
+    <x:row r="51" spans="1:3">
+      <x:c r="A51" s="2"/>
+      <x:c r="B51" s="3"/>
+    </x:row>
+    <x:row r="52" spans="1:3">
+      <x:c r="A52" s="2"/>
+      <x:c r="B52" s="3"/>
+    </x:row>
+    <x:row r="53" spans="1:3">
+      <x:c r="A53" s="2"/>
+      <x:c r="B53" s="3"/>
+    </x:row>
+    <x:row r="54" spans="1:3">
+      <x:c r="A54" s="2"/>
+      <x:c r="B54" s="3"/>
+    </x:row>
+    <x:row r="55" spans="1:3">
+      <x:c r="A55" s="2"/>
+      <x:c r="B55" s="3"/>
+    </x:row>
+    <x:row r="56" spans="1:3">
+      <x:c r="A56" s="2"/>
+      <x:c r="B56" s="3"/>
+    </x:row>
+    <x:row r="57" spans="1:3">
+      <x:c r="A57" s="2"/>
+      <x:c r="B57" s="3"/>
+    </x:row>
+    <x:row r="58" spans="1:3">
+      <x:c r="A58" s="2"/>
+      <x:c r="B58" s="3"/>
+    </x:row>
+    <x:row r="59" spans="1:3">
+      <x:c r="A59" s="2"/>
+      <x:c r="B59" s="3"/>
+    </x:row>
+    <x:row r="60" spans="1:3">
+      <x:c r="A60" s="2"/>
+      <x:c r="B60" s="3"/>
+    </x:row>
+    <x:row r="61" spans="1:3">
+      <x:c r="A61" s="2"/>
+      <x:c r="B61" s="3"/>
+    </x:row>
+    <x:row r="62" spans="1:3">
+      <x:c r="A62" s="2"/>
+      <x:c r="B62" s="3"/>
+    </x:row>
+    <x:row r="63" spans="1:3">
+      <x:c r="A63" s="2"/>
+      <x:c r="B63" s="3"/>
+    </x:row>
+    <x:row r="64" spans="1:3">
+      <x:c r="A64" s="2"/>
+      <x:c r="B64" s="3"/>
+    </x:row>
+  </x:sheetData>
+  <x:phoneticPr fontId="2"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Tests/Tests.xlsx
+++ b/Tests/Tests.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E97DC-6317-4B4E-B7C8-A93D166320B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A88F8-8A5E-4E8A-A4E9-E94EBB5F9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -44,7 +44,7 @@
     <x:t>Việc làm Hồ Chí Minh</x:t>
   </x:si>
   <x:si>
-    <x:t>https://job3s.com.vn/tim-viec-lam-tai-ho-chi-minh-l45</x:t>
+    <x:t>https://job3s.com.vn/tim-viec-lam-tai-tra-vinh-l62</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -120,7 +120,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -129,7 +129,6 @@
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <x:alignment vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,7 +415,7 @@
   <x:dimension ref="A1:C64"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B10" sqref="B10"/>
+      <x:selection activeCell="C12" sqref="C12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>

--- a/Tests/Tests.xlsx
+++ b/Tests/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4A88F8-8A5E-4E8A-A4E9-E94EBB5F9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5E02FC-7B14-493D-ADCD-B0A390B8819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,12 @@
   </x:si>
   <x:si>
     <x:t>https://job3s.com.vn/tim-viec-lam-tai-tra-vinh-l62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Việc làm Hải Phòng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://job3s.com.vn/tim-viec-lam-tai-hai-phong-l2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -415,7 +421,7 @@
   <x:dimension ref="A1:C64"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C12" sqref="C12"/>
+      <x:selection activeCell="B19" sqref="B19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
@@ -459,8 +465,15 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="A4" s="2"/>
-      <x:c r="B4" s="3"/>
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="2"/>
